--- a/local-scenarios-new/cough/processes/ExampleProcess.xlsx
+++ b/local-scenarios-new/cough/processes/ExampleProcess.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -58,7 +58,25 @@
     <t xml:space="preserve">Erst ein paar Tage</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [previous_var] == some_value THEN GOTO(PrevMedication) ELSE GOTO(OtherQ)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GOTO(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PreviousMedBrand)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">less_than_1</t>
@@ -67,16 +85,13 @@
     <t xml:space="preserve">Mehr als eine Woche</t>
   </si>
   <si>
-    <t xml:space="preserve">JUMP(SafetyQuestions)</t>
+    <t xml:space="preserve">GOTO(PreviousMedBrand)</t>
   </si>
   <si>
     <t xml:space="preserve">more_than_1</t>
   </si>
   <si>
     <t xml:space="preserve">Mehr als 8 Wochen (2Monate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAD(SomeOtheProcess); JUMP(Dropout)</t>
   </si>
   <si>
     <t xml:space="preserve">some_other_value</t>
@@ -146,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,6 +192,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +270,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -330,8 +355,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,7 +406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -397,7 +422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -406,14 +431,14 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -422,79 +447,79 @@
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
